--- a/results/Michigan_Scenario2.xlsx
+++ b/results/Michigan_Scenario2.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,6 +443,147 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>0.21182</v>
+      </c>
+      <c r="B2">
+        <v>0.119</v>
+      </c>
+      <c r="C2">
+        <v>1.78</v>
+      </c>
+      <c r="D2">
+        <v>17.83058800760389</v>
+      </c>
+      <c r="E2">
+        <v>287.2260134220123</v>
+      </c>
+      <c r="F2">
+        <v>2.085705559206493</v>
+      </c>
+      <c r="G2">
+        <v>295.9297034740448</v>
+      </c>
+      <c r="H2">
+        <v>13.34986519536545</v>
+      </c>
+      <c r="I2">
+        <v>321.6350998878479</v>
+      </c>
+      <c r="J2">
+        <v>216.1784491232932</v>
+      </c>
+      <c r="K2">
+        <v>784.5005693435669</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>283</v>
+      </c>
+      <c r="N2">
+        <v>157177185.0851499</v>
+      </c>
+      <c r="O2">
+        <v>997231254.8317606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>0.233002</v>
+      </c>
+      <c r="B3">
+        <v>0.119</v>
+      </c>
+      <c r="C3">
+        <v>1.958</v>
+      </c>
+      <c r="D3">
+        <v>28.41505741524247</v>
+      </c>
+      <c r="E3">
+        <v>398.8002364635468</v>
+      </c>
+      <c r="F3">
+        <v>3.742411009945285</v>
+      </c>
+      <c r="G3">
+        <v>414.6809144020081</v>
+      </c>
+      <c r="H3">
+        <v>36.5897668060643</v>
+      </c>
+      <c r="I3">
+        <v>481.8157207965851</v>
+      </c>
+      <c r="J3">
+        <v>1118.588962130633</v>
+      </c>
+      <c r="K3">
+        <v>2693.253064632416</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>241</v>
+      </c>
+      <c r="N3">
+        <v>201010098.7769739</v>
+      </c>
+      <c r="O3">
+        <v>1080105091.444705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>0.190638</v>
+      </c>
+      <c r="B4">
+        <v>0.119</v>
+      </c>
+      <c r="C4">
+        <v>1.602</v>
+      </c>
+      <c r="D4">
+        <v>11.18878055166536</v>
+      </c>
+      <c r="E4">
+        <v>209.7599229812622</v>
+      </c>
+      <c r="F4">
+        <v>1.16239700355573</v>
+      </c>
+      <c r="G4">
+        <v>214.4868981838226</v>
+      </c>
+      <c r="H4">
+        <v>4.870729135116226</v>
+      </c>
+      <c r="I4">
+        <v>224.3552536964417</v>
+      </c>
+      <c r="J4">
+        <v>41.77853130366901</v>
+      </c>
+      <c r="K4">
+        <v>322.5717298984528</v>
+      </c>
+      <c r="L4">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>349</v>
+      </c>
+      <c r="N4">
+        <v>112294704.8775666</v>
+      </c>
+      <c r="O4">
+        <v>884835854.686313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Michigan_Scenario2.xlsx
+++ b/results/Michigan_Scenario2.xlsx
@@ -487,7 +487,7 @@
         <v>157177185.0851499</v>
       </c>
       <c r="O2">
-        <v>997231254.8317606</v>
+        <v>997231254.8294923</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -534,7 +534,7 @@
         <v>201010098.7769739</v>
       </c>
       <c r="O3">
-        <v>1080105091.444705</v>
+        <v>1080105091.444701</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -581,7 +581,7 @@
         <v>112294704.8775666</v>
       </c>
       <c r="O4">
-        <v>884835854.686313</v>
+        <v>884835850.2467806</v>
       </c>
     </row>
   </sheetData>
